--- a/biology/Botanique/Marronnier_de_l'Himalaya/Marronnier_de_l'Himalaya.xlsx
+++ b/biology/Botanique/Marronnier_de_l'Himalaya/Marronnier_de_l'Himalaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marronnier_de_l%27Himalaya</t>
+          <t>Marronnier_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aesculus indica
 Le marronnier de l'Himalaya ou marronnier d'Inde, Aesculus indica,  est une espèce de plantes à fleurs de la famille des Sapindacées. C'est un arbre originaire du sous-continent indien, parfois cultivé comme arbre d'ornement.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marronnier_de_l%27Himalaya</t>
+          <t>Marronnier_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marronnier de l'Himalaya est un arbre de 20 mètres de haut environ, à tronc court, parfois ramifié. Le houppier est en forme de dôme élevé. L'écorce est grise et lisse.
 Les feuilles caduques, sont opposées, et composées-palmées, formées de cinq à sept folioles, de forme générale elliptique lancéolée, à extrémité pointue et à bords finement dentés ; les plus grandes peuvent atteindre 30 cm de long.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marronnier_de_l%27Himalaya</t>
+          <t>Marronnier_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire des régions montagneuses du sous-continent indien :
 Inde : Himachal Pradesh, Jammu-et-Cachemire, Uttarakhand,
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marronnier_de_l%27Himalaya</t>
+          <t>Marronnier_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre planté pour l'ornement.
 Cette espèce est rustique sous climat tempéré.
